--- a/Test Files/TestCaseSlaveFiles/REDX/WEB/SAP/C.xlsx
+++ b/Test Files/TestCaseSlaveFiles/REDX/WEB/SAP/C.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestCaseSlaveFiles/REDX/WEB/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBC0D0-6F44-D847-9085-06FEFEDB400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57265C42-D4CF-7146-B2B4-33B563C2B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" xr2:uid="{4BF8D852-6BAD-7343-9C40-89D40E57961E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" activeTab="1" xr2:uid="{4BF8D852-6BAD-7343-9C40-89D40E57961E}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>parcelId</t>
   </si>
@@ -47,6 +48,18 @@
   </si>
   <si>
     <t>DKUGDHGD</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>DYUGD</t>
+  </si>
+  <si>
+    <t>CJHGCJHCc</t>
+  </si>
+  <si>
+    <t>CGCJHG</t>
   </si>
 </sst>
 </file>
@@ -400,6 +413,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB1547E-C1CE-E84F-9C24-4800552ECABE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B7F60C-5731-E84B-BDCD-6772C4B9E207}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -408,18 +452,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Test Files/TestCaseSlaveFiles/REDX/WEB/SAP/C.xlsx
+++ b/Test Files/TestCaseSlaveFiles/REDX/WEB/SAP/C.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhiljustus/Katalon Studio/CDS App/Test Files/TestCaseSlaveFiles/REDX/WEB/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBC0D0-6F44-D847-9085-06FEFEDB400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC57350-866D-8C4E-AF92-D8C6F7DD5297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15140" xr2:uid="{4BF8D852-6BAD-7343-9C40-89D40E57961E}"/>
+    <workbookView xWindow="2220" yWindow="500" windowWidth="28040" windowHeight="15140" activeTab="1" xr2:uid="{4BF8D852-6BAD-7343-9C40-89D40E57961E}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>parcelId</t>
   </si>
@@ -47,6 +48,18 @@
   </si>
   <si>
     <t>DKUGDHGD</t>
+  </si>
+  <si>
+    <t>sytfs</t>
+  </si>
+  <si>
+    <t>skgdshj</t>
+  </si>
+  <si>
+    <t>cxkbd</t>
+  </si>
+  <si>
+    <t>dkjhdkh</t>
   </si>
 </sst>
 </file>
@@ -400,6 +413,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB1547E-C1CE-E84F-9C24-4800552ECABE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA1B36E-0182-A346-96D5-3A020D278A2C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -408,18 +452,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
